--- a/1_excel/sample_korean.xlsx
+++ b/1_excel/sample_korean.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -512,32 +512,32 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="n">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
